--- a/data/pca/factorExposure/factorExposure_2017-03-09.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-03-09.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01817384296257777</v>
+        <v>0.01138626785017895</v>
       </c>
       <c r="C2">
-        <v>0.01666002037114063</v>
+        <v>-0.04277379664153282</v>
       </c>
       <c r="D2">
-        <v>-0.03208214406139822</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.03022527744727264</v>
+      </c>
+      <c r="E2">
+        <v>0.0416288004752567</v>
+      </c>
+      <c r="F2">
+        <v>-0.001634684034226715</v>
+      </c>
+      <c r="G2">
+        <v>0.1056207386582754</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.02240203050866186</v>
+        <v>0.0397257149174729</v>
       </c>
       <c r="C3">
-        <v>-0.003154452441760541</v>
+        <v>-0.100039490785168</v>
       </c>
       <c r="D3">
-        <v>-0.08539576614968832</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.01790550676494594</v>
+      </c>
+      <c r="E3">
+        <v>0.101333688878121</v>
+      </c>
+      <c r="F3">
+        <v>-0.009418051331669775</v>
+      </c>
+      <c r="G3">
+        <v>0.1533713444493129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.02796273821012666</v>
+        <v>0.055967757623451</v>
       </c>
       <c r="C4">
-        <v>0.008447211825767412</v>
+        <v>-0.06797447776726477</v>
       </c>
       <c r="D4">
-        <v>-0.07592974773204589</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.02483486601166725</v>
+      </c>
+      <c r="E4">
+        <v>0.03658156996061967</v>
+      </c>
+      <c r="F4">
+        <v>0.005147780381095677</v>
+      </c>
+      <c r="G4">
+        <v>0.1001175387948909</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.009508668136830194</v>
+        <v>0.03618160522781078</v>
       </c>
       <c r="C6">
-        <v>0.01152967478540331</v>
+        <v>-0.05030187215150901</v>
       </c>
       <c r="D6">
-        <v>-0.07218410343355484</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01738174723342942</v>
+      </c>
+      <c r="E6">
+        <v>0.04070395562182585</v>
+      </c>
+      <c r="F6">
+        <v>0.001812932152774163</v>
+      </c>
+      <c r="G6">
+        <v>0.08691074924060314</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.0002637946618365496</v>
+        <v>0.02058908180362619</v>
       </c>
       <c r="C7">
-        <v>0.0132227110477121</v>
+        <v>-0.03950512544201083</v>
       </c>
       <c r="D7">
-        <v>-0.03528462811697508</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.01401756506827958</v>
+      </c>
+      <c r="E7">
+        <v>0.007277914170223294</v>
+      </c>
+      <c r="F7">
+        <v>-0.006225823718979199</v>
+      </c>
+      <c r="G7">
+        <v>0.1233129307916725</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.003993381666813683</v>
+        <v>0.002612245505220197</v>
       </c>
       <c r="C8">
-        <v>0.003300487019043769</v>
+        <v>-0.02384464517802065</v>
       </c>
       <c r="D8">
-        <v>0.006899528965243626</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.004051586292532193</v>
+      </c>
+      <c r="E8">
+        <v>0.03221571214123247</v>
+      </c>
+      <c r="F8">
+        <v>0.001383403978530491</v>
+      </c>
+      <c r="G8">
+        <v>0.07133191013659368</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01202631705369708</v>
+        <v>0.03329188608746154</v>
       </c>
       <c r="C9">
-        <v>0.008930859586000895</v>
+        <v>-0.05011653706464254</v>
       </c>
       <c r="D9">
-        <v>-0.05781799281769269</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.0165686909758247</v>
+      </c>
+      <c r="E9">
+        <v>0.02465497991233719</v>
+      </c>
+      <c r="F9">
+        <v>0.004604161943453634</v>
+      </c>
+      <c r="G9">
+        <v>0.1023072513077691</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.1467460082151536</v>
+        <v>0.09786587663906429</v>
       </c>
       <c r="C10">
-        <v>-0.1027449119493617</v>
+        <v>0.1834334181079604</v>
       </c>
       <c r="D10">
-        <v>0.1146092331197151</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01560898231889077</v>
+      </c>
+      <c r="E10">
+        <v>0.01936685006314145</v>
+      </c>
+      <c r="F10">
+        <v>-0.02300709265055196</v>
+      </c>
+      <c r="G10">
+        <v>0.05373536948894173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.002984508627130952</v>
+        <v>0.0350843035086183</v>
       </c>
       <c r="C11">
-        <v>-0.0009800457475253137</v>
+        <v>-0.05219013325450911</v>
       </c>
       <c r="D11">
-        <v>-0.05165326179539297</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.002556668594775628</v>
+      </c>
+      <c r="E11">
+        <v>0.02031564082326334</v>
+      </c>
+      <c r="F11">
+        <v>0.0151666188951239</v>
+      </c>
+      <c r="G11">
+        <v>0.0911432132319475</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.007377662467317798</v>
+        <v>0.03679366424493645</v>
       </c>
       <c r="C12">
-        <v>0.001913366954175839</v>
+        <v>-0.04699917937254625</v>
       </c>
       <c r="D12">
-        <v>-0.04582802089889478</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.006637655551541448</v>
+      </c>
+      <c r="E12">
+        <v>0.01053449754466619</v>
+      </c>
+      <c r="F12">
+        <v>-0.001364454224084795</v>
+      </c>
+      <c r="G12">
+        <v>0.08338738743904768</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01613712414567086</v>
+        <v>0.01512809914464784</v>
       </c>
       <c r="C13">
-        <v>0.01494539119992564</v>
+        <v>-0.04202747047316067</v>
       </c>
       <c r="D13">
-        <v>-0.03411476921359451</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.0269094529606873</v>
+      </c>
+      <c r="E13">
+        <v>0.04026862952378393</v>
+      </c>
+      <c r="F13">
+        <v>-0.003961588827152243</v>
+      </c>
+      <c r="G13">
+        <v>0.1429536158363603</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.002725054122155575</v>
+        <v>0.00830080355779682</v>
       </c>
       <c r="C14">
-        <v>0.006323759767533414</v>
+        <v>-0.02832682470165639</v>
       </c>
       <c r="D14">
-        <v>-0.02125039063909216</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.01033724083246379</v>
+      </c>
+      <c r="E14">
+        <v>0.008769808350131006</v>
+      </c>
+      <c r="F14">
+        <v>-0.009648796746288624</v>
+      </c>
+      <c r="G14">
+        <v>0.1111360323491459</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.006444076105930713</v>
+        <v>0.03365436137111333</v>
       </c>
       <c r="C16">
-        <v>-0.003416134376668308</v>
+        <v>-0.04538664847971823</v>
       </c>
       <c r="D16">
-        <v>-0.04097849934242405</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.001982127986162484</v>
+      </c>
+      <c r="E16">
+        <v>0.01529360020940742</v>
+      </c>
+      <c r="F16">
+        <v>-0.003231256763850376</v>
+      </c>
+      <c r="G16">
+        <v>0.09258010941603975</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.009813562696238903</v>
+        <v>0.02242752302434414</v>
       </c>
       <c r="C19">
-        <v>0.00891506826833339</v>
+        <v>-0.05144624539726685</v>
       </c>
       <c r="D19">
-        <v>-0.03574081396936668</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.01986546848822266</v>
+      </c>
+      <c r="E19">
+        <v>0.08531815105490946</v>
+      </c>
+      <c r="F19">
+        <v>0.007557729959801014</v>
+      </c>
+      <c r="G19">
+        <v>0.1421092460046648</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.002611297646291436</v>
+        <v>0.01549803948663885</v>
       </c>
       <c r="C20">
-        <v>0.01103291307903919</v>
+        <v>-0.04202024280007087</v>
       </c>
       <c r="D20">
-        <v>-0.03304447871047671</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.01454971178165848</v>
+      </c>
+      <c r="E20">
+        <v>0.03858343565170057</v>
+      </c>
+      <c r="F20">
+        <v>-0.0189387748670245</v>
+      </c>
+      <c r="G20">
+        <v>0.1131689792689409</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.00544813804387264</v>
+        <v>0.01060353744148997</v>
       </c>
       <c r="C21">
-        <v>0.01170825873926896</v>
+        <v>-0.03834951439539253</v>
       </c>
       <c r="D21">
-        <v>-0.01388988502417588</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.01973764251155462</v>
+      </c>
+      <c r="E21">
+        <v>0.05073518541392631</v>
+      </c>
+      <c r="F21">
+        <v>-0.006772655201646591</v>
+      </c>
+      <c r="G21">
+        <v>0.1440338865279538</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.0007547046620286875</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.006703660023776142</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.001934355580676633</v>
+      </c>
+      <c r="E22">
+        <v>0.0150758481326535</v>
+      </c>
+      <c r="F22">
+        <v>0.0103397502533159</v>
+      </c>
+      <c r="G22">
+        <v>0.001224039644262272</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.0007511243971132468</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.006704299323025413</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.001929880152237174</v>
+      </c>
+      <c r="E23">
+        <v>0.01503390368217967</v>
+      </c>
+      <c r="F23">
+        <v>0.01031163297990013</v>
+      </c>
+      <c r="G23">
+        <v>0.001106924834351199</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.001357517239388588</v>
+        <v>0.02920091066966787</v>
       </c>
       <c r="C24">
-        <v>0.005333603597326164</v>
+        <v>-0.04816505404631989</v>
       </c>
       <c r="D24">
-        <v>-0.04237978151126012</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.007257982170784266</v>
+      </c>
+      <c r="E24">
+        <v>0.01591829339785534</v>
+      </c>
+      <c r="F24">
+        <v>0.006807830298309776</v>
+      </c>
+      <c r="G24">
+        <v>0.09330179128473533</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01672237981766022</v>
+        <v>0.04277356810365186</v>
       </c>
       <c r="C25">
-        <v>0.001461008570916752</v>
+        <v>-0.05660632261292541</v>
       </c>
       <c r="D25">
-        <v>-0.05874253485090648</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.01126467911937823</v>
+      </c>
+      <c r="E25">
+        <v>0.006018780867164953</v>
+      </c>
+      <c r="F25">
+        <v>0.002747709948929362</v>
+      </c>
+      <c r="G25">
+        <v>0.09834707524154328</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01124131094108706</v>
+        <v>0.01398646751293363</v>
       </c>
       <c r="C26">
-        <v>0.01864414580047819</v>
+        <v>-0.01181526816578821</v>
       </c>
       <c r="D26">
-        <v>-0.001252644346124319</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02419061479509895</v>
+      </c>
+      <c r="E26">
+        <v>0.009796744397354283</v>
+      </c>
+      <c r="F26">
+        <v>-0.008415809840047087</v>
+      </c>
+      <c r="G26">
+        <v>0.08590259107624496</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.1928869846802284</v>
+        <v>0.1258605685753509</v>
       </c>
       <c r="C28">
-        <v>-0.1173595748665355</v>
+        <v>0.2427064867183339</v>
       </c>
       <c r="D28">
-        <v>0.141274066983078</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.00675465212822994</v>
+      </c>
+      <c r="E28">
+        <v>0.007698424143810111</v>
+      </c>
+      <c r="F28">
+        <v>-0.01912927897071558</v>
+      </c>
+      <c r="G28">
+        <v>0.04679033459817968</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.007114396448767216</v>
+        <v>0.008645619023218804</v>
       </c>
       <c r="C29">
-        <v>0.003084027917586341</v>
+        <v>-0.02303798160170499</v>
       </c>
       <c r="D29">
-        <v>-0.01724553650778734</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.00942590888302648</v>
+      </c>
+      <c r="E29">
+        <v>0.004745462000721835</v>
+      </c>
+      <c r="F29">
+        <v>-0.01539349985177014</v>
+      </c>
+      <c r="G29">
+        <v>0.1032961558994388</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.01109822658183826</v>
+        <v>0.04095296159586745</v>
       </c>
       <c r="C30">
-        <v>0.02124584026141661</v>
+        <v>-0.0685420314251477</v>
       </c>
       <c r="D30">
-        <v>-0.09490131757188291</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.02944232627210051</v>
+      </c>
+      <c r="E30">
+        <v>0.06835220320525277</v>
+      </c>
+      <c r="F30">
+        <v>0.03396057633471624</v>
+      </c>
+      <c r="G30">
+        <v>0.1381660909114958</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.02226764009616475</v>
+        <v>0.0532783682573475</v>
       </c>
       <c r="C31">
-        <v>-0.008743124034520374</v>
+        <v>-0.03921239559877177</v>
       </c>
       <c r="D31">
-        <v>-0.03198829792675638</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.003775277862178718</v>
+      </c>
+      <c r="E31">
+        <v>-0.00384246874451911</v>
+      </c>
+      <c r="F31">
+        <v>-0.03886035939195132</v>
+      </c>
+      <c r="G31">
+        <v>0.09707961264501697</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.004112567762908951</v>
+        <v>0.002690947002358066</v>
       </c>
       <c r="C32">
-        <v>-0.006929793209546973</v>
+        <v>-0.02122618301273817</v>
       </c>
       <c r="D32">
-        <v>0.006515306483498449</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.002635429012189354</v>
+      </c>
+      <c r="E32">
+        <v>0.04088288232529044</v>
+      </c>
+      <c r="F32">
+        <v>0.03312435810578333</v>
+      </c>
+      <c r="G32">
+        <v>0.09122333985701397</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.009174685767236197</v>
+        <v>0.02810545497268922</v>
       </c>
       <c r="C33">
-        <v>0.007183968881302632</v>
+        <v>-0.05102909801029476</v>
       </c>
       <c r="D33">
-        <v>-0.04252048395759619</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.01645092601082267</v>
+      </c>
+      <c r="E33">
+        <v>0.04952625013328628</v>
+      </c>
+      <c r="F33">
+        <v>0.00947252125437165</v>
+      </c>
+      <c r="G33">
+        <v>0.1649311841783386</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.0131725629509111</v>
+        <v>0.04036785872975821</v>
       </c>
       <c r="C34">
-        <v>-0.01532067199247333</v>
+        <v>-0.05830464971070081</v>
       </c>
       <c r="D34">
-        <v>-0.05986166139218114</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.004357528675538954</v>
+      </c>
+      <c r="E34">
+        <v>0.01170370763511845</v>
+      </c>
+      <c r="F34">
+        <v>0.01791050361208456</v>
+      </c>
+      <c r="G34">
+        <v>0.09499110632011069</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01223159380140648</v>
+        <v>0.01604242077720934</v>
       </c>
       <c r="C36">
-        <v>0.004734212466271415</v>
+        <v>-0.01069298531135748</v>
       </c>
       <c r="D36">
-        <v>-0.005091772301792052</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.0129710242281923</v>
+      </c>
+      <c r="E36">
+        <v>0.01010690852488736</v>
+      </c>
+      <c r="F36">
+        <v>-0.008600125282509016</v>
+      </c>
+      <c r="G36">
+        <v>0.0942348718225058</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.01707589657622684</v>
+        <v>0.03138912551295135</v>
       </c>
       <c r="C38">
-        <v>-0.02016485244855731</v>
+        <v>-0.03027861782592424</v>
       </c>
       <c r="D38">
-        <v>-0.04020419288302477</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.007520575896908063</v>
+      </c>
+      <c r="E38">
+        <v>0.006486581172679857</v>
+      </c>
+      <c r="F38">
+        <v>-0.01961859570958938</v>
+      </c>
+      <c r="G38">
+        <v>0.08598667410577306</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.01063165196066889</v>
+        <v>0.03679714792003527</v>
       </c>
       <c r="C39">
-        <v>0.01722613316015685</v>
+        <v>-0.07870492633702554</v>
       </c>
       <c r="D39">
-        <v>-0.09859355930914</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.01176476193271224</v>
+      </c>
+      <c r="E39">
+        <v>0.03157454303583519</v>
+      </c>
+      <c r="F39">
+        <v>0.01715038858755845</v>
+      </c>
+      <c r="G39">
+        <v>0.09252453775286212</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.0154859812117035</v>
+        <v>0.01374604595300908</v>
       </c>
       <c r="C40">
-        <v>0.002450776938387249</v>
+        <v>-0.03800936932464654</v>
       </c>
       <c r="D40">
-        <v>-0.02779674216507076</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.01489257920265987</v>
+      </c>
+      <c r="E40">
+        <v>0.0332947171738488</v>
+      </c>
+      <c r="F40">
+        <v>-0.01296564618315793</v>
+      </c>
+      <c r="G40">
+        <v>0.1249419373830063</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.01326741245895003</v>
+        <v>0.02032969277110848</v>
       </c>
       <c r="C41">
-        <v>-0.004877934253339185</v>
+        <v>-0.003821961954427852</v>
       </c>
       <c r="D41">
-        <v>0.009918935379094834</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.00479220993897926</v>
+      </c>
+      <c r="E41">
+        <v>0.007728286329782633</v>
+      </c>
+      <c r="F41">
+        <v>-0.01552993867196027</v>
+      </c>
+      <c r="G41">
+        <v>0.08739959304151666</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.03809052756503929</v>
+        <v>0.008070968988961048</v>
       </c>
       <c r="C42">
-        <v>0.08465630413815226</v>
+        <v>-0.02829677202158621</v>
       </c>
       <c r="D42">
-        <v>-0.1089289768282464</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.087488839257975</v>
+      </c>
+      <c r="E42">
+        <v>0.008553370969692144</v>
+      </c>
+      <c r="F42">
+        <v>-0.04181345949847822</v>
+      </c>
+      <c r="G42">
+        <v>-0.02620188855493302</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.01401932147023541</v>
+        <v>0.03552969976479612</v>
       </c>
       <c r="C43">
-        <v>-0.004412552456994728</v>
+        <v>-0.01921879745901144</v>
       </c>
       <c r="D43">
-        <v>0.009081986675766342</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.006142385231029303</v>
+      </c>
+      <c r="E43">
+        <v>0.02167516093002851</v>
+      </c>
+      <c r="F43">
+        <v>-0.01051410274330734</v>
+      </c>
+      <c r="G43">
+        <v>0.1207436830339244</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.001749863333572651</v>
+        <v>0.01423314433914782</v>
       </c>
       <c r="C44">
-        <v>0.004261081667510416</v>
+        <v>-0.05853705270387369</v>
       </c>
       <c r="D44">
-        <v>-0.04681284131755618</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.006989467529447677</v>
+      </c>
+      <c r="E44">
+        <v>0.025921099293463</v>
+      </c>
+      <c r="F44">
+        <v>-0.01085918649880316</v>
+      </c>
+      <c r="G44">
+        <v>0.1108781261682537</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.006218560326061862</v>
+        <v>0.008850688265770719</v>
       </c>
       <c r="C46">
-        <v>0.007365570515911106</v>
+        <v>-0.01509966321024374</v>
       </c>
       <c r="D46">
-        <v>0.002384479380164961</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01261653256976776</v>
+      </c>
+      <c r="E46">
+        <v>-0.0009788455581208244</v>
+      </c>
+      <c r="F46">
+        <v>-0.01982346815566764</v>
+      </c>
+      <c r="G46">
+        <v>0.1107789956771122</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.02579551805678463</v>
+        <v>0.07849299478028539</v>
       </c>
       <c r="C47">
-        <v>-0.01902538825584885</v>
+        <v>-0.06898314848741026</v>
       </c>
       <c r="D47">
-        <v>-0.07703925612658268</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.005070320861211971</v>
+      </c>
+      <c r="E47">
+        <v>-0.01127668984891568</v>
+      </c>
+      <c r="F47">
+        <v>-0.05410267594205736</v>
+      </c>
+      <c r="G47">
+        <v>0.08267459529014783</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.007623166956504747</v>
+        <v>0.01861451467996738</v>
       </c>
       <c r="C48">
-        <v>-0.003689404639436406</v>
+        <v>-0.01361098315333572</v>
       </c>
       <c r="D48">
-        <v>-0.01774475803469572</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.002561430594139387</v>
+      </c>
+      <c r="E48">
+        <v>0.006084768138471646</v>
+      </c>
+      <c r="F48">
+        <v>-0.02005636321982601</v>
+      </c>
+      <c r="G48">
+        <v>0.09965740637575077</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.03111045088065857</v>
+        <v>0.07488971649720812</v>
       </c>
       <c r="C50">
-        <v>-0.02045923041308955</v>
+        <v>-0.07267174371313162</v>
       </c>
       <c r="D50">
-        <v>-0.06880329479484536</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.002121585244157875</v>
+      </c>
+      <c r="E50">
+        <v>-0.008280483278185022</v>
+      </c>
+      <c r="F50">
+        <v>-0.05410494689924908</v>
+      </c>
+      <c r="G50">
+        <v>0.09315875110612831</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.00921659561019309</v>
+        <v>0.01345045596571941</v>
       </c>
       <c r="C51">
-        <v>0.0007843543506591561</v>
+        <v>-0.03752215475538336</v>
       </c>
       <c r="D51">
-        <v>-0.02765663813237339</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.01074049016497925</v>
+      </c>
+      <c r="E51">
+        <v>0.02930968633181699</v>
+      </c>
+      <c r="F51">
+        <v>0.0154006533396005</v>
+      </c>
+      <c r="G51">
+        <v>0.1243735035240526</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.04025998428828384</v>
+        <v>0.08187364199442937</v>
       </c>
       <c r="C53">
-        <v>-0.02611382864688547</v>
+        <v>-0.08511859952756726</v>
       </c>
       <c r="D53">
-        <v>-0.1251669502879326</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.003350205615264955</v>
+      </c>
+      <c r="E53">
+        <v>-0.03003934790813433</v>
+      </c>
+      <c r="F53">
+        <v>-0.0598862517735858</v>
+      </c>
+      <c r="G53">
+        <v>0.08903507582995693</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.01604894575668326</v>
+        <v>0.03195340982293072</v>
       </c>
       <c r="C54">
-        <v>-0.01407252824639879</v>
+        <v>-0.01901216877041562</v>
       </c>
       <c r="D54">
-        <v>-0.0005742609950212605</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.0009622835161770017</v>
+      </c>
+      <c r="E54">
+        <v>0.02036852159302583</v>
+      </c>
+      <c r="F54">
+        <v>-0.008365601313728896</v>
+      </c>
+      <c r="G54">
+        <v>0.1111853478307502</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.02290521220381544</v>
+        <v>0.07290928973684205</v>
       </c>
       <c r="C55">
-        <v>-0.0162098306972602</v>
+        <v>-0.06766843658720542</v>
       </c>
       <c r="D55">
-        <v>-0.1012575586373904</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.005003084051506857</v>
+      </c>
+      <c r="E55">
+        <v>-0.02752179683074638</v>
+      </c>
+      <c r="F55">
+        <v>-0.06059436079809936</v>
+      </c>
+      <c r="G55">
+        <v>0.06582827115879424</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.04609873974275149</v>
+        <v>0.1361384598162511</v>
       </c>
       <c r="C56">
-        <v>-0.03437700170637031</v>
+        <v>-0.1082113461852041</v>
       </c>
       <c r="D56">
-        <v>-0.1583740737444813</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.01253267650162738</v>
+      </c>
+      <c r="E56">
+        <v>-0.04168042677741352</v>
+      </c>
+      <c r="F56">
+        <v>-0.07699369054412626</v>
+      </c>
+      <c r="G56">
+        <v>0.03757552129507424</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.01835193590365896</v>
+        <v>0.005384213755935567</v>
       </c>
       <c r="C57">
-        <v>0.01459903426050521</v>
+        <v>-0.005970913794822429</v>
       </c>
       <c r="D57">
-        <v>-0.02703063964284707</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.02272169495480767</v>
+      </c>
+      <c r="E57">
+        <v>0.02447437083262582</v>
+      </c>
+      <c r="F57">
+        <v>0.004093793072015964</v>
+      </c>
+      <c r="G57">
+        <v>0.02234352814041898</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.0003016088606684518</v>
+        <v>0.04824275801173097</v>
       </c>
       <c r="C58">
-        <v>0.00272385218942167</v>
+        <v>-0.04652166729645556</v>
       </c>
       <c r="D58">
-        <v>-0.07656733584776212</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.02352308176454563</v>
+      </c>
+      <c r="E58">
+        <v>0.8699771410303023</v>
+      </c>
+      <c r="F58">
+        <v>-0.377494481951601</v>
+      </c>
+      <c r="G58">
+        <v>-0.2443862986831226</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.2167003782067123</v>
+        <v>0.1589219088129276</v>
       </c>
       <c r="C59">
-        <v>-0.1384926031923875</v>
+        <v>0.2074654551970965</v>
       </c>
       <c r="D59">
-        <v>0.1193788952872115</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.01157171697667983</v>
+      </c>
+      <c r="E59">
+        <v>0.0225046630286831</v>
+      </c>
+      <c r="F59">
+        <v>-0.006439354602131294</v>
+      </c>
+      <c r="G59">
+        <v>0.04193479203661179</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.203116232000573</v>
+        <v>0.2889499710714614</v>
       </c>
       <c r="C60">
-        <v>-0.1085373149494084</v>
+        <v>-0.11134651117334</v>
       </c>
       <c r="D60">
-        <v>-0.1854109974782544</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.01269070846259573</v>
+      </c>
+      <c r="E60">
+        <v>0.04995874391322713</v>
+      </c>
+      <c r="F60">
+        <v>0.3472946632430857</v>
+      </c>
+      <c r="G60">
+        <v>-0.1588646228887842</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.001464996057318397</v>
+        <v>0.03886503105626401</v>
       </c>
       <c r="C61">
-        <v>0.002891317684355792</v>
+        <v>-0.06574129216306933</v>
       </c>
       <c r="D61">
-        <v>-0.0779323389524687</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.005872620983119871</v>
+      </c>
+      <c r="E61">
+        <v>0.02719580680664265</v>
+      </c>
+      <c r="F61">
+        <v>0.009967418241574802</v>
+      </c>
+      <c r="G61">
+        <v>0.09992613987537291</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.003761231733924037</v>
+        <v>0.0149303836096223</v>
       </c>
       <c r="C63">
-        <v>0.006193459979063819</v>
+        <v>-0.03075184372213899</v>
       </c>
       <c r="D63">
-        <v>-0.02512947034161759</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.008844937036922417</v>
+      </c>
+      <c r="E63">
+        <v>0.005720384925395603</v>
+      </c>
+      <c r="F63">
+        <v>-0.01499304822653249</v>
+      </c>
+      <c r="G63">
+        <v>0.0954752157695585</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.02554193634062907</v>
+        <v>0.04915079901562282</v>
       </c>
       <c r="C64">
-        <v>-0.01034466779028271</v>
+        <v>-0.04723025075798443</v>
       </c>
       <c r="D64">
-        <v>-0.0555917848946408</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.006219035084958572</v>
+      </c>
+      <c r="E64">
+        <v>0.006131543686278102</v>
+      </c>
+      <c r="F64">
+        <v>0.002844250499296541</v>
+      </c>
+      <c r="G64">
+        <v>0.0987326560591256</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.03294967559079802</v>
+        <v>0.07515476820330867</v>
       </c>
       <c r="C65">
-        <v>-0.001122573726599841</v>
+        <v>-0.05817399979402405</v>
       </c>
       <c r="D65">
-        <v>-0.1152867709903932</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.01708602902635494</v>
+      </c>
+      <c r="E65">
+        <v>0.04541755264243943</v>
+      </c>
+      <c r="F65">
+        <v>0.02255283165194614</v>
+      </c>
+      <c r="G65">
+        <v>0.04422545436585103</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.00919317248375605</v>
+        <v>0.05044303404786088</v>
       </c>
       <c r="C66">
-        <v>0.0158510836454249</v>
+        <v>-0.1053844941627796</v>
       </c>
       <c r="D66">
-        <v>-0.1388309304793343</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.01200488888807099</v>
+      </c>
+      <c r="E66">
+        <v>0.04701351099220132</v>
+      </c>
+      <c r="F66">
+        <v>0.02834411164395107</v>
+      </c>
+      <c r="G66">
+        <v>0.1063071091462606</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.03945629604441041</v>
+        <v>0.05448413845566542</v>
       </c>
       <c r="C67">
-        <v>-0.03050901524336181</v>
+        <v>-0.03432904729260914</v>
       </c>
       <c r="D67">
-        <v>-0.06173229265780688</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.006098047455983783</v>
+      </c>
+      <c r="E67">
+        <v>-0.003503203848991456</v>
+      </c>
+      <c r="F67">
+        <v>-0.01726475878110414</v>
+      </c>
+      <c r="G67">
+        <v>0.07216273021051191</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.226142171695771</v>
+        <v>0.1566185963602316</v>
       </c>
       <c r="C68">
-        <v>-0.1218188034281203</v>
+        <v>0.2714757751995994</v>
       </c>
       <c r="D68">
-        <v>0.1773736290063673</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.005548874315620642</v>
+      </c>
+      <c r="E68">
+        <v>0.009217429348305528</v>
+      </c>
+      <c r="F68">
+        <v>-0.04222170611413324</v>
+      </c>
+      <c r="G68">
+        <v>0.02720564583274391</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.02991731794149049</v>
+        <v>0.08182625853564265</v>
       </c>
       <c r="C69">
-        <v>-0.02611124539437576</v>
+        <v>-0.07205100903141537</v>
       </c>
       <c r="D69">
-        <v>-0.07980445634751751</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.008970033731880494</v>
+      </c>
+      <c r="E69">
+        <v>-0.02430402071630476</v>
+      </c>
+      <c r="F69">
+        <v>-0.03441228042892872</v>
+      </c>
+      <c r="G69">
+        <v>0.1011351892204472</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1843671394360393</v>
+        <v>0.1416060860490879</v>
       </c>
       <c r="C71">
-        <v>-0.1067885083395468</v>
+        <v>0.2291291212470169</v>
       </c>
       <c r="D71">
-        <v>0.1210712338957834</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.002746456663151407</v>
+      </c>
+      <c r="E71">
+        <v>0.0318243291932707</v>
+      </c>
+      <c r="F71">
+        <v>-0.03145312053461946</v>
+      </c>
+      <c r="G71">
+        <v>0.06908897524125124</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.01768578169716263</v>
+        <v>0.08610879009983897</v>
       </c>
       <c r="C72">
-        <v>-0.01907989717533196</v>
+        <v>-0.0678066794783115</v>
       </c>
       <c r="D72">
-        <v>-0.1035346370505203</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.008722253849296299</v>
+      </c>
+      <c r="E72">
+        <v>-0.00871681036244123</v>
+      </c>
+      <c r="F72">
+        <v>0.03063595116055373</v>
+      </c>
+      <c r="G72">
+        <v>0.08931895957921887</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.2581049669565244</v>
+        <v>0.3771109202026673</v>
       </c>
       <c r="C73">
-        <v>-0.1341013774472134</v>
+        <v>-0.1148968418693414</v>
       </c>
       <c r="D73">
-        <v>-0.2863566087523635</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.02218610289274933</v>
+      </c>
+      <c r="E73">
+        <v>0.1459497262611182</v>
+      </c>
+      <c r="F73">
+        <v>0.5684929202475552</v>
+      </c>
+      <c r="G73">
+        <v>-0.2834091241478394</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.04876003009342171</v>
+        <v>0.105470875185372</v>
       </c>
       <c r="C74">
-        <v>-0.03806467236149272</v>
+        <v>-0.1093275257936337</v>
       </c>
       <c r="D74">
-        <v>-0.1715850935741986</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.009356546672955508</v>
+      </c>
+      <c r="E74">
+        <v>-0.01344479420622563</v>
+      </c>
+      <c r="F74">
+        <v>-0.06575443034310607</v>
+      </c>
+      <c r="G74">
+        <v>0.0780748093751899</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.1202047736058466</v>
+        <v>0.2492145426666544</v>
       </c>
       <c r="C75">
-        <v>-0.08838097709668707</v>
+        <v>-0.1514911466810137</v>
       </c>
       <c r="D75">
-        <v>-0.2979264351464528</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03163002351225441</v>
+      </c>
+      <c r="E75">
+        <v>-0.08729218031613113</v>
+      </c>
+      <c r="F75">
+        <v>-0.1598461652791827</v>
+      </c>
+      <c r="G75">
+        <v>-0.03209941811893755</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.05283591132345552</v>
+        <v>0.1179123982208031</v>
       </c>
       <c r="C76">
-        <v>-0.04658835468614759</v>
+        <v>-0.110414583900244</v>
       </c>
       <c r="D76">
-        <v>-0.1983811985821467</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.01744414194545143</v>
+      </c>
+      <c r="E76">
+        <v>-0.03295400600963177</v>
+      </c>
+      <c r="F76">
+        <v>-0.09326691177512558</v>
+      </c>
+      <c r="G76">
+        <v>0.05350221695383408</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.01804658868040754</v>
+        <v>0.07114623802728207</v>
       </c>
       <c r="C77">
-        <v>-0.0007717290427089506</v>
+        <v>-0.0586304841123543</v>
       </c>
       <c r="D77">
-        <v>-0.08154991213828773</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.0101495125050923</v>
+      </c>
+      <c r="E77">
+        <v>0.05148078699114381</v>
+      </c>
+      <c r="F77">
+        <v>0.002095050724729122</v>
+      </c>
+      <c r="G77">
+        <v>0.06883243567407865</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.009060240964871697</v>
+        <v>0.04246326281413772</v>
       </c>
       <c r="C78">
-        <v>-0.001021738176104863</v>
+        <v>-0.04984794403012395</v>
       </c>
       <c r="D78">
-        <v>-0.06398155040693412</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.006316552625239964</v>
+      </c>
+      <c r="E78">
+        <v>0.03657766570472885</v>
+      </c>
+      <c r="F78">
+        <v>0.03239200163593951</v>
+      </c>
+      <c r="G78">
+        <v>0.1023410785134146</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.0003640030237535867</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>-0.0005552341589399868</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.0003111884979777888</v>
+      </c>
+      <c r="E79">
+        <v>0.003206044942342037</v>
+      </c>
+      <c r="F79">
+        <v>0.001648096907679211</v>
+      </c>
+      <c r="G79">
+        <v>0.001579146950361211</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.03749440908438339</v>
+        <v>0.04495713874368264</v>
       </c>
       <c r="C80">
-        <v>-0.01073173584433073</v>
+        <v>-0.05036305637265648</v>
       </c>
       <c r="D80">
-        <v>-0.07843879650010552</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01309167635800293</v>
+      </c>
+      <c r="E80">
+        <v>0.02667147767538808</v>
+      </c>
+      <c r="F80">
+        <v>0.00380418321242805</v>
+      </c>
+      <c r="G80">
+        <v>0.05247004868929191</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.06247131279286095</v>
+        <v>0.137804438847157</v>
       </c>
       <c r="C81">
-        <v>-0.0456649537852499</v>
+        <v>-0.09699404284439557</v>
       </c>
       <c r="D81">
-        <v>-0.1677307616196745</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01507746737754735</v>
+      </c>
+      <c r="E81">
+        <v>-0.04858636132222644</v>
+      </c>
+      <c r="F81">
+        <v>-0.1226440404605896</v>
+      </c>
+      <c r="G81">
+        <v>0.01981245609562707</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.003183950067697154</v>
+        <v>0.1402016784952757</v>
       </c>
       <c r="C82">
-        <v>-0.002118874443370173</v>
+        <v>-0.08236685471716504</v>
       </c>
       <c r="D82">
-        <v>-0.004220770360088711</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.01070644427320691</v>
+      </c>
+      <c r="E82">
+        <v>-0.1134673404148435</v>
+      </c>
+      <c r="F82">
+        <v>-0.0547258588022739</v>
+      </c>
+      <c r="G82">
+        <v>0.05983592197602002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.01360435023868037</v>
+        <v>0.03537100117599363</v>
       </c>
       <c r="C83">
-        <v>-0.004000538810496615</v>
+        <v>-0.02963480247397434</v>
       </c>
       <c r="D83">
-        <v>-0.0179672376464696</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.006045002250278661</v>
+      </c>
+      <c r="E83">
+        <v>0.03128182207735253</v>
+      </c>
+      <c r="F83">
+        <v>0.02664758112346182</v>
+      </c>
+      <c r="G83">
+        <v>0.06082582075811491</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.1039361807761527</v>
+        <v>0.2100751364785715</v>
       </c>
       <c r="C85">
-        <v>-0.06427343427545804</v>
+        <v>-0.1467898927237296</v>
       </c>
       <c r="D85">
-        <v>-0.2592219875501973</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.01715513590566603</v>
+      </c>
+      <c r="E85">
+        <v>-0.1125224833539163</v>
+      </c>
+      <c r="F85">
+        <v>-0.09753744973211738</v>
+      </c>
+      <c r="G85">
+        <v>-0.07087354532809387</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01118859192956441</v>
+        <v>0.01306620736542998</v>
       </c>
       <c r="C86">
-        <v>-0.0008756727816468005</v>
+        <v>-0.02723635651909789</v>
       </c>
       <c r="D86">
-        <v>-0.03719902667291203</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.01184295310866331</v>
+      </c>
+      <c r="E86">
+        <v>0.05204858731934897</v>
+      </c>
+      <c r="F86">
+        <v>0.009142711762987747</v>
+      </c>
+      <c r="G86">
+        <v>0.1931440882259028</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.00652729784462744</v>
+        <v>0.02227010361660145</v>
       </c>
       <c r="C87">
-        <v>0.01372104462462599</v>
+        <v>-0.01918242410865829</v>
       </c>
       <c r="D87">
-        <v>-0.02586577542060454</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.01237303210994328</v>
+      </c>
+      <c r="E87">
+        <v>0.09933534939473036</v>
+      </c>
+      <c r="F87">
+        <v>-0.007297018605315155</v>
+      </c>
+      <c r="G87">
+        <v>0.1239284297877222</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.04858898876202059</v>
+        <v>0.09336119311719504</v>
       </c>
       <c r="C88">
-        <v>-0.003791407824582829</v>
+        <v>-0.06848582135858484</v>
       </c>
       <c r="D88">
-        <v>-0.04032503147323184</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.0221101375313094</v>
+      </c>
+      <c r="E88">
+        <v>-0.00489216296955061</v>
+      </c>
+      <c r="F88">
+        <v>-0.01979247825022555</v>
+      </c>
+      <c r="G88">
+        <v>0.1044571428749004</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.3331915849555353</v>
+        <v>0.2303040769335507</v>
       </c>
       <c r="C89">
-        <v>-0.1891387655035442</v>
+        <v>0.3679132152980205</v>
       </c>
       <c r="D89">
-        <v>0.2186103349490885</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.0002121822830933829</v>
+      </c>
+      <c r="E89">
+        <v>-0.02248983125463827</v>
+      </c>
+      <c r="F89">
+        <v>-0.02462075847398769</v>
+      </c>
+      <c r="G89">
+        <v>0.06967501261071869</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.280194827945947</v>
+        <v>0.2080037020964201</v>
       </c>
       <c r="C90">
-        <v>-0.1630119362896941</v>
+        <v>0.3174628020368757</v>
       </c>
       <c r="D90">
-        <v>0.1941491647781682</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.004624236959235567</v>
+      </c>
+      <c r="E90">
+        <v>-0.0006208186242850291</v>
+      </c>
+      <c r="F90">
+        <v>-0.04949457438215803</v>
+      </c>
+      <c r="G90">
+        <v>0.04354932550910334</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.09785114796014766</v>
+        <v>0.1857992805707065</v>
       </c>
       <c r="C91">
-        <v>-0.07483082035484377</v>
+        <v>-0.1398814945107243</v>
       </c>
       <c r="D91">
-        <v>-0.2218387626983025</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.02234193944028732</v>
+      </c>
+      <c r="E91">
+        <v>-0.07808637216809361</v>
+      </c>
+      <c r="F91">
+        <v>-0.1298182410039654</v>
+      </c>
+      <c r="G91">
+        <v>0.02652776340522566</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.2330313706128838</v>
+        <v>0.1990042160901422</v>
       </c>
       <c r="C92">
-        <v>-0.1712467160318357</v>
+        <v>0.2575612402144987</v>
       </c>
       <c r="D92">
-        <v>0.106507114162323</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.03822586587474144</v>
+      </c>
+      <c r="E92">
+        <v>0.03178930852716837</v>
+      </c>
+      <c r="F92">
+        <v>-0.06607325274419468</v>
+      </c>
+      <c r="G92">
+        <v>0.1141948930224515</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.2975679564593348</v>
+        <v>0.2320896088037931</v>
       </c>
       <c r="C93">
-        <v>-0.1799952064568368</v>
+        <v>0.3115049900756015</v>
       </c>
       <c r="D93">
-        <v>0.1609977917045818</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01141334940197163</v>
+      </c>
+      <c r="E93">
+        <v>0.0003721008757576353</v>
+      </c>
+      <c r="F93">
+        <v>-0.04533069896937435</v>
+      </c>
+      <c r="G93">
+        <v>0.05663655482505364</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.1328248068936644</v>
+        <v>0.3188082809072511</v>
       </c>
       <c r="C94">
-        <v>-0.07217465600155396</v>
+        <v>-0.1837583995027023</v>
       </c>
       <c r="D94">
-        <v>-0.2793852731391538</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.02027861264718725</v>
+      </c>
+      <c r="E94">
+        <v>-0.2745522559981933</v>
+      </c>
+      <c r="F94">
+        <v>-0.4468061183402478</v>
+      </c>
+      <c r="G94">
+        <v>-0.3967530379301926</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.005519669913136892</v>
+        <v>0.09834966380626683</v>
       </c>
       <c r="C95">
-        <v>-0.01153230811366965</v>
+        <v>-0.08689875729098095</v>
       </c>
       <c r="D95">
-        <v>-0.1269877784660723</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.01015009723175818</v>
+      </c>
+      <c r="E95">
+        <v>0.09231970046653216</v>
+      </c>
+      <c r="F95">
+        <v>0.1595858343586959</v>
+      </c>
+      <c r="G95">
+        <v>0.01754097321775606</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1396138339474488</v>
+        <v>0.1933531192644543</v>
       </c>
       <c r="C98">
-        <v>-0.1010658549037051</v>
+        <v>-0.04319804044502419</v>
       </c>
       <c r="D98">
-        <v>-0.1304252490099879</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01235675905624538</v>
+      </c>
+      <c r="E98">
+        <v>0.103439463396349</v>
+      </c>
+      <c r="F98">
+        <v>0.2335358561794184</v>
+      </c>
+      <c r="G98">
+        <v>-0.02623646290157874</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.006835460378597118</v>
+        <v>0.008415927311450279</v>
       </c>
       <c r="C101">
-        <v>0.003053156585250091</v>
+        <v>-0.023017414386469</v>
       </c>
       <c r="D101">
-        <v>-0.01709297210304565</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.009254150970904505</v>
+      </c>
+      <c r="E101">
+        <v>0.004492843349813281</v>
+      </c>
+      <c r="F101">
+        <v>-0.01629226447328403</v>
+      </c>
+      <c r="G101">
+        <v>0.102377870831584</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.0583362658629752</v>
+        <v>0.1147965931904174</v>
       </c>
       <c r="C102">
-        <v>-0.02787059670404137</v>
+        <v>-0.08191775129552201</v>
       </c>
       <c r="D102">
-        <v>-0.1338078741274821</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.000776015703983425</v>
+      </c>
+      <c r="E102">
+        <v>-0.04011739574137831</v>
+      </c>
+      <c r="F102">
+        <v>-0.03642573775422527</v>
+      </c>
+      <c r="G102">
+        <v>0.009208794543316428</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.5120951900041679</v>
+        <v>0.02129655977602599</v>
       </c>
       <c r="C104">
-        <v>0.8485994042605377</v>
+        <v>0.0297621347654141</v>
       </c>
       <c r="D104">
-        <v>0.02132221873114101</v>
+        <v>-0.9877208264979367</v>
+      </c>
+      <c r="E104">
+        <v>-0.05739000705650345</v>
+      </c>
+      <c r="F104">
+        <v>-0.02981843017287001</v>
+      </c>
+      <c r="G104">
+        <v>-0.04131425581499407</v>
       </c>
     </row>
   </sheetData>
